--- a/Nodalization-AP600-MELCOR.xlsx
+++ b/Nodalization-AP600-MELCOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="test section" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,19 @@
     <sheet name="208" sheetId="6" r:id="rId5"/>
     <sheet name="steam" sheetId="7" r:id="rId6"/>
     <sheet name="heat structure" sheetId="9" r:id="rId7"/>
+    <sheet name="214" sheetId="10" r:id="rId8"/>
+    <sheet name="fl203" sheetId="11" r:id="rId9"/>
+    <sheet name="FL205" sheetId="12" r:id="rId10"/>
+    <sheet name="FL207" sheetId="13" r:id="rId11"/>
+    <sheet name="FL209" sheetId="14" r:id="rId12"/>
+    <sheet name="FL210" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>total</t>
   </si>
@@ -120,6 +126,22 @@
   </si>
   <si>
     <t>sub-volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,12 +534,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <f>(0.91/2+0.195/2)</f>
+        <v>0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.14935199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1.2847999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>4*B2/B3</f>
+        <v>0.46498132004981324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <f>1.4/2</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.277368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2.1248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>4*B2/B3</f>
+        <v>0.52215361445783137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <f>(0.91/2+0.195/2)</f>
+        <v>0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.277368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2.1248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>4*B2/B3</f>
+        <v>0.52215361445783137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
+        <v>0.76419999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.277368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2.1248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>4*B2/B3</f>
+        <v>0.52215361445783137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,7 +928,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.4</v>
+        <f>(1.4-0.91)</f>
+        <v>0.48999999999999988</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -729,7 +952,7 @@
       </c>
       <c r="J4">
         <f>B7*B2*B3</f>
-        <v>8.3210400000000004E-2</v>
+        <v>2.9123639999999996E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -746,7 +969,7 @@
       </c>
       <c r="B6">
         <f>B2*B3</f>
-        <v>0.42671999999999999</v>
+        <v>0.14935199999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -763,8 +986,8 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>2*(B2+B3)</f>
-        <v>3.4095999999999997</v>
+        <f>B2+B3+B3</f>
+        <v>1.2847999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -773,7 +996,7 @@
       </c>
       <c r="B9">
         <f>4*B6/B8</f>
-        <v>0.5006100422336931</v>
+        <v>0.46498132004981324</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +1010,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -884,8 +1107,8 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>B2+B3+B3+B2</f>
-        <v>1.5895999999999997</v>
+        <f>B2+B3+B3</f>
+        <v>1.2847999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -894,13 +1117,13 @@
       </c>
       <c r="B9">
         <f>4*B6/B8</f>
-        <v>0.37582284851534981</v>
+        <v>0.46498132004981324</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10">
         <f>B9/2</f>
-        <v>0.1879114242576749</v>
+        <v>0.23249066002490662</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +1137,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,8 +1249,8 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>B2+B3+B3+B2</f>
-        <v>2.4296000000000002</v>
+        <f>B2+B3+B3</f>
+        <v>2.1248</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1043,7 +1266,7 @@
       </c>
       <c r="B9">
         <f>4*B6/B8</f>
-        <v>0.45664800790253535</v>
+        <v>0.52215361445783137</v>
       </c>
       <c r="E9">
         <f>E8/2</f>
@@ -1053,7 +1276,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10">
         <f>B9/2</f>
-        <v>0.22832400395126767</v>
+        <v>0.26107680722891569</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1184,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1207,4 +1430,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
+        <v>0.76419999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.14935199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1.2847999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>4*B2/B3</f>
+        <v>0.46498132004981324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Nodalization-AP600-MELCOR.xlsx
+++ b/Nodalization-AP600-MELCOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="test section" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>total</t>
   </si>
@@ -85,22 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FL From 206 to 208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Initial temperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +102,6 @@
   </si>
   <si>
     <t>velocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FL From 208 to 204</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,15 +518,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <f>(0.91/2+0.195/2)</f>
@@ -555,7 +535,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.14935199999999998</v>
@@ -563,7 +543,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1.2847999999999997</v>
@@ -571,7 +551,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
@@ -589,14 +569,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <f>1.4/2</f>
@@ -605,7 +585,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.277368</v>
@@ -613,7 +593,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2.1248</v>
@@ -621,7 +601,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
@@ -646,7 +626,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <f>(0.91/2+0.195/2)</f>
@@ -655,7 +635,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.277368</v>
@@ -663,7 +643,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2.1248</v>
@@ -671,7 +651,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
@@ -688,15 +668,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
@@ -705,7 +685,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.277368</v>
@@ -713,7 +693,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2.1248</v>
@@ -721,7 +701,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
@@ -808,7 +788,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -957,7 +937,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1008,133 +988,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <f>0.91</f>
-        <v>0.91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.30480000000000002</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>1.4-B1</f>
-        <v>0.48999999999999988</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f>1.5284</f>
-        <v>1.5284</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <f>B7+I3</f>
-        <v>2.4384000000000001</v>
-      </c>
-      <c r="J4">
-        <f>B7*B2*B3</f>
-        <v>0.13591031999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f>B2*B3</f>
-        <v>0.14935199999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f>B1/B5</f>
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <f>B2+B3+B3</f>
-        <v>1.2847999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <f>4*B6/B8</f>
-        <v>0.46498132004981324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <f>B9/2</f>
-        <v>0.23249066002490662</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1147,6 +1000,7 @@
         <v>4</v>
       </c>
       <c r="B1">
+        <f>0.91</f>
         <v>0.91</v>
       </c>
       <c r="G1" t="s">
@@ -1175,7 +1029,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.91</v>
+        <f>1.4-B1</f>
+        <v>0.48999999999999988</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1189,9 +1044,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4">
         <v>2</v>
       </c>
@@ -1201,6 +1053,131 @@
       </c>
       <c r="J4">
         <f>B7*B2*B3</f>
+        <v>0.13591031999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>B2*B3</f>
+        <v>0.14935199999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f>B1/B5</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>B2+B3+B3</f>
+        <v>1.2847999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f>4*B6/B8</f>
+        <v>0.46498132004981324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <f>B9/2</f>
+        <v>0.23249066002490662</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>0.91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.91</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>1.5284</f>
+        <v>1.5284</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>B7+I3</f>
+        <v>2.4384000000000001</v>
+      </c>
+      <c r="J4">
+        <f>B7*B2*B3</f>
         <v>0.25240488</v>
       </c>
     </row>
@@ -1220,13 +1197,6 @@
         <f>B2*B3</f>
         <v>0.277368</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <f>B1*B2</f>
-        <v>0.277368</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1236,13 +1206,6 @@
         <f>B1/B5</f>
         <v>0.91</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <f>2*(B1+B2)</f>
-        <v>2.4296000000000002</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1252,13 +1215,6 @@
         <f>B2+B3+B3</f>
         <v>2.1248</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <f>4*E6/E7</f>
-        <v>0.45664800790253535</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1267,54 +1223,12 @@
       <c r="B9">
         <f>4*B6/B8</f>
         <v>0.52215361445783137</v>
-      </c>
-      <c r="E9">
-        <f>E8/2</f>
-        <v>0.22832400395126767</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10">
         <f>B9/2</f>
         <v>0.26107680722891569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <f>B1*B2</f>
-        <v>0.277368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <f>2*(B2+B3)</f>
-        <v>2.4296000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <f>4*E15/E16</f>
-        <v>0.45664800790253535</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E18">
-        <f>E17/2</f>
-        <v>0.22832400395126767</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1272,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>398.28</v>
@@ -1366,7 +1280,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>172369</v>
@@ -1374,7 +1288,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2.7E-2</v>
@@ -1382,7 +1296,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0.95609999999999995</v>
@@ -1390,7 +1304,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <f>B8/B11/B2</f>
@@ -1452,7 +1366,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1462,7 +1376,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
@@ -1471,7 +1385,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.14935199999999998</v>
@@ -1479,7 +1393,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1.2847999999999997</v>
@@ -1487,7 +1401,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>

--- a/Nodalization-AP600-MELCOR.xlsx
+++ b/Nodalization-AP600-MELCOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="712" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="test section" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>total</t>
   </si>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,7 +869,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,7 +990,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1348,16 +1348,88 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <f>0.39/2</f>
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.30480000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>0.91</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>B2*B3</f>
+        <v>0.277368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f>B1/B5</f>
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>B2+B3+B3</f>
+        <v>2.1248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f>4*B6/B8</f>
+        <v>0.52215361445783137</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1366,7 +1438,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
